--- a/LOGS/7b67619b-41e6-4e04-846a-973953d5b49c/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/7b67619b-41e6-4e04-846a-973953d5b49c/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="78">
   <si>
     <t>line_item_0</t>
   </si>
@@ -153,6 +153,9 @@
     <t>11. Property, plant and equipment</t>
   </si>
   <si>
+    <t>Current tax liabilities</t>
+  </si>
+  <si>
     <t>Inr respect of the current year</t>
   </si>
   <si>
@@ -166,6 +169,27 @@
   </si>
   <si>
     <t>Deferred tax</t>
+  </si>
+  <si>
+    <t>line_item_1</t>
+  </si>
+  <si>
+    <t>line_item_2</t>
+  </si>
+  <si>
+    <t>Profit before income tax from continuing operations</t>
+  </si>
+  <si>
+    <t>Tax at the statutory tax rate of 30% (2022: 30%)</t>
+  </si>
+  <si>
+    <t>Effect of expenses that are not deductible in determining taxable profit</t>
+  </si>
+  <si>
+    <t>Adjustments recognised in the current year in relation to the tax expense of prior years</t>
+  </si>
+  <si>
+    <t>Income tax expense reported in the statement of profit or loss</t>
   </si>
   <si>
     <t>Payables to related parties (Note 23)</t>
@@ -1736,25 +1760,71 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2">
+        <v>-348543</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>-2236</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1767,13 +1837,19 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>517526</v>
@@ -1781,13 +1857,19 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>-2236</v>
@@ -1795,13 +1877,19 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>515290</v>
@@ -1809,13 +1897,19 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>-227170</v>
@@ -1823,13 +1917,19 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>-227170</v>
@@ -1837,13 +1937,19 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>288120</v>
@@ -1851,13 +1957,19 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>54696</v>
@@ -1865,13 +1977,19 @@
       <c r="D8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>29512</v>
@@ -1879,13 +1997,19 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>84208</v>
@@ -1893,13 +2017,19 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>93621</v>
@@ -1907,13 +2037,19 @@
       <c r="D11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>93621</v>
@@ -1921,19 +2057,31 @@
       <c r="D12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>177829</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
@@ -1943,15 +2091,273 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2">
+        <v>942579</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3">
+        <v>282773</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4">
+        <v>7583</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>290356</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6">
+        <v>-2236</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7">
+        <v>288120</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8">
+        <v>487466</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9">
+        <v>146240</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>2077</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>148317</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12">
+        <v>29512</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13">
+        <v>177829</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
@@ -1989,7 +2395,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -2009,7 +2415,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -2029,7 +2435,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -2049,7 +2455,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -2069,7 +2475,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -2089,7 +2495,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -2109,7 +2515,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -2129,7 +2535,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -2149,7 +2555,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -2169,7 +2575,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -2189,7 +2595,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -2209,7 +2615,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -2262,7 +2668,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -2282,7 +2688,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -2302,7 +2708,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -2342,7 +2748,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -2362,7 +2768,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -2382,7 +2788,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -2455,7 +2861,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -2475,7 +2881,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -2528,7 +2934,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -2548,7 +2954,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -2588,7 +2994,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -2608,10 +3014,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C6">
         <v>196683</v>
@@ -2628,10 +3034,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C7">
         <v>112210</v>
@@ -2648,10 +3054,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C8">
         <v>308893</v>
@@ -2668,7 +3074,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -2688,7 +3094,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -2728,7 +3134,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -2748,10 +3154,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2768,10 +3174,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2788,10 +3194,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2914,7 +3320,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>100274</v>
@@ -2931,7 +3337,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C3">
         <v>51293</v>
@@ -2951,7 +3357,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <v>151567</v>
@@ -2968,7 +3374,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C5">
         <v>96417</v>
@@ -2985,7 +3391,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>151567</v>
@@ -3005,7 +3411,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>247984</v>
@@ -3190,7 +3596,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>500000</v>
@@ -3207,7 +3613,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>500000</v>
@@ -3257,10 +3663,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C2">
         <v>19456273</v>
@@ -3277,10 +3683,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>1709275</v>
@@ -3300,7 +3706,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>21165548</v>
@@ -3317,10 +3723,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C5">
         <v>19456273</v>
@@ -3337,10 +3743,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C6">
         <v>1709275</v>
@@ -3360,7 +3766,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C7">
         <v>21165548</v>
@@ -3377,10 +3783,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <v>8220825</v>
@@ -3397,10 +3803,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C9">
         <v>1297845</v>
@@ -3420,7 +3826,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>9518670</v>
@@ -3437,10 +3843,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C11">
         <v>8220825</v>
@@ -3457,10 +3863,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C12">
         <v>1297845</v>
@@ -3480,7 +3886,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C13">
         <v>9518670</v>
@@ -3530,7 +3936,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C2">
         <v>284000</v>
@@ -3547,7 +3953,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C3">
         <v>99000</v>
